--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1272401.207446071</v>
+        <v>1265022.261564546</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.9079846578023</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.64907291062124</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>28.90798465780367</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>199.1961742994378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.5885645199242</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>3.182585533881204</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>26.3653517777011</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>32.64393945255012</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>19.53202017915646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.6375170540257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>64.33403876091346</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>43.61939039064416</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>189.528511397603</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>145.5998750794831</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>65.31126771337257</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>136.4226250355566</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>47.85279947264753</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.237737797244854</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>21.31870002049614</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>65.31126771336955</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.8467119671852</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.237737797244854</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>47.79739267512333</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>101.4278957699515</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.1452631156235</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>39.1663969284044</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.52634516334646</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>212.3187248686895</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>2.371942978336208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.4675916026428</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.41371323444141</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.5640793128577</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4336,10 +4336,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,7 +4369,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>445.4099384687679</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>445.4099384687679</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>445.4099384687679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>297.4968448863748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4518,22 +4518,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>355.929286469144</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>445.4099384687679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>510.784551090019</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>95.71210093501543</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>95.71210093501543</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.9680739783734</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>457.9680739783734</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.836054204827</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.570355598076</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>937.782102999832</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>526.7961982102245</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>111.7237480552209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3298.974153146847</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.837793613838</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>384.6303727573681</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6303727573681</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6303727573681</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>384.6303727573681</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.837793613838</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5047,43 +5047,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092259</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687997</v>
@@ -5229,22 +5229,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.555541309953</v>
+        <v>966.2695881270078</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.555541309953</v>
+        <v>946.5402748147285</v>
       </c>
       <c r="X13" t="n">
-        <v>1440.555541309953</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>718.5507239167111</v>
       </c>
     </row>
     <row r="14">
@@ -5266,43 +5266,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.81666304797189</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="C16" t="n">
-        <v>93.81666304797189</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="D16" t="n">
-        <v>93.81666304797189</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687997</v>
@@ -5460,28 +5460,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402015</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843993</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V16" t="n">
-        <v>427.2938233785125</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W16" t="n">
-        <v>137.8766533415518</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X16" t="n">
-        <v>93.81666304797189</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.81666304797189</v>
+        <v>387.7771914342449</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="C19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377032</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309958</v>
       </c>
       <c r="T19" t="n">
-        <v>1190.65500321726</v>
+        <v>1220.954076332899</v>
       </c>
       <c r="U19" t="n">
-        <v>1190.65500321726</v>
+        <v>931.8788496770965</v>
       </c>
       <c r="V19" t="n">
-        <v>999.2120624116001</v>
+        <v>677.1943614712096</v>
       </c>
       <c r="W19" t="n">
-        <v>709.7948923746394</v>
+        <v>387.777191434249</v>
       </c>
       <c r="X19" t="n">
-        <v>481.8053414766221</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="Y19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N22" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q22" t="n">
         <v>1440.555541309953</v>
@@ -5937,25 +5937,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>1374.584563821698</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T22" t="n">
-        <v>1154.983098844639</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U22" t="n">
-        <v>865.9078721888367</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V22" t="n">
-        <v>611.2233839829498</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="W22" t="n">
-        <v>321.8062139459892</v>
+        <v>459.6068452950363</v>
       </c>
       <c r="X22" t="n">
-        <v>93.81666304797186</v>
+        <v>231.617294397019</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3513.030457064518</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="C25" t="n">
-        <v>3344.094274136612</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.094274136612</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>3344.094274136612</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.094274136612</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>3391.030413657439</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>3547.043347501772</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.591987151573</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.877125582257</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>4269.187457566248</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>4477.305488573009</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>4636.324446465667</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>4687.562710179153</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>4687.562710179153</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>4687.562710179153</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U25" t="n">
-        <v>4687.562710179153</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V25" t="n">
-        <v>4432.878221973267</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W25" t="n">
-        <v>4143.461051936306</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X25" t="n">
-        <v>3915.471501038288</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y25" t="n">
-        <v>3694.678921894758</v>
+        <v>607.3786564113032</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4288.392108424824</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C28" t="n">
-        <v>4119.455925496917</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D28" t="n">
-        <v>3969.339286084582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E28" t="n">
-        <v>3821.426192502188</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>3674.536245004278</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>3507.340145719158</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>3365.628314561356</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629305</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936139</v>
       </c>
       <c r="N28" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477605</v>
       </c>
       <c r="O28" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484366</v>
       </c>
       <c r="P28" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377024</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.55554130995</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.55554130995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.55554130995</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>1220.954076332891</v>
       </c>
       <c r="U28" t="n">
-        <v>4690.833152398593</v>
+        <v>931.8788496770887</v>
       </c>
       <c r="V28" t="n">
-        <v>4690.833152398593</v>
+        <v>677.1943614712019</v>
       </c>
       <c r="W28" t="n">
-        <v>4690.833152398593</v>
+        <v>387.7771914342413</v>
       </c>
       <c r="X28" t="n">
-        <v>4690.833152398593</v>
+        <v>159.7876405362239</v>
       </c>
       <c r="Y28" t="n">
-        <v>4470.040573255063</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3513.030457064519</v>
+        <v>862.0631446171899</v>
       </c>
       <c r="C31" t="n">
-        <v>3344.094274136613</v>
+        <v>693.126961689283</v>
       </c>
       <c r="D31" t="n">
-        <v>3344.094274136613</v>
+        <v>543.0103222769472</v>
       </c>
       <c r="E31" t="n">
-        <v>3344.094274136613</v>
+        <v>395.0972286945541</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.094274136613</v>
+        <v>248.2072811966438</v>
       </c>
       <c r="G31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U31" t="n">
-        <v>4687.562710179154</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V31" t="n">
-        <v>4432.878221973268</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W31" t="n">
-        <v>4143.461051936307</v>
+        <v>862.0631446171899</v>
       </c>
       <c r="X31" t="n">
-        <v>3915.471501038289</v>
+        <v>862.0631446171899</v>
       </c>
       <c r="Y31" t="n">
-        <v>3694.678921894759</v>
+        <v>862.0631446171899</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3957.950137557159</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>3789.013954629252</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>3638.897315216916</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>3490.984221634523</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.094274136613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>4588.380732428946</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>4588.380732428946</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U34" t="n">
-        <v>4588.380732428946</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V34" t="n">
-        <v>4588.380732428946</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W34" t="n">
-        <v>4588.380732428946</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="X34" t="n">
-        <v>4360.391181530928</v>
+        <v>923.1488203749748</v>
       </c>
       <c r="Y34" t="n">
-        <v>4139.598602387398</v>
+        <v>923.1488203749748</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>555.4404582322786</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="C37" t="n">
-        <v>386.5042753043717</v>
+        <v>280.2686276452806</v>
       </c>
       <c r="D37" t="n">
-        <v>236.387635892036</v>
+        <v>280.2686276452806</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>280.2686276452806</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>133.3786801473703</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>133.3786801473703</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.555541309953</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.871053104066</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W37" t="n">
-        <v>1185.871053104066</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="X37" t="n">
-        <v>957.8815022060485</v>
+        <v>449.2048105731875</v>
       </c>
       <c r="Y37" t="n">
-        <v>737.0889230625183</v>
+        <v>449.2048105731875</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>494.012839093331</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>325.0766561654241</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>325.0766561654241</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>140.7528025687996</v>
@@ -7350,34 +7350,34 @@
         <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377023</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309948</v>
       </c>
       <c r="V40" t="n">
-        <v>1185.871053104066</v>
+        <v>1185.871053104062</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.871053104066</v>
+        <v>896.4538830671008</v>
       </c>
       <c r="X40" t="n">
-        <v>971.4076946508441</v>
+        <v>896.4538830671008</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>675.6613039235707</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>786.9770154788154</v>
+        <v>971.0687935885854</v>
       </c>
       <c r="C43" t="n">
-        <v>618.0408325509085</v>
+        <v>802.1326106606786</v>
       </c>
       <c r="D43" t="n">
-        <v>467.9241931385727</v>
+        <v>652.0159712483428</v>
       </c>
       <c r="E43" t="n">
-        <v>320.0110995561796</v>
+        <v>504.1028776659497</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>357.2129301680393</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S43" t="n">
-        <v>1257.700706964857</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T43" t="n">
-        <v>1257.700706964857</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U43" t="n">
-        <v>968.6254803090551</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V43" t="n">
-        <v>968.6254803090551</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="W43" t="n">
-        <v>968.6254803090551</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="X43" t="n">
-        <v>968.6254803090551</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="Y43" t="n">
-        <v>968.6254803090551</v>
+        <v>1152.717258418825</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>427.2938233785118</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="C46" t="n">
-        <v>427.2938233785118</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D46" t="n">
-        <v>427.2938233785118</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>279.3807297961187</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>279.3807297961187</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T46" t="n">
-        <v>971.0535382402009</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>681.9783115843986</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V46" t="n">
-        <v>427.2938233785118</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W46" t="n">
-        <v>427.2938233785118</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X46" t="n">
-        <v>427.2938233785118</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="Y46" t="n">
-        <v>427.2938233785118</v>
+        <v>412.8694853882145</v>
       </c>
     </row>
   </sheetData>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>266.9909781574345</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.9471362980691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.09992388565571</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>182.090264998393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>62.60913192622496</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.10978030955408</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>115.715018288272</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>82.1620283165382</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>119.3940216259803</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.13750891287683</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24420,7 +24420,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>59.9471362980694</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>153.2733856387252</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>12.67742632508367</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24894,19 +24894,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>282.9467365919993</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>132.034587506814</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>79.59839023169312</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>5.288699530945678</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>101.1283159178195</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>62.90761748322271</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.39093052034764</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>143.049105044595</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>45.05654668962602</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>122.1104250578274</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.14557607617942</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900719.5099585133</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585137</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>469940.6138913981</v>
@@ -26328,13 +26328,13 @@
         <v>469940.6138913981</v>
       </c>
       <c r="G2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
         <v>469940.6138913981</v>
       </c>
       <c r="I2" t="n">
-        <v>469940.6138913978</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="J2" t="n">
         <v>469940.6138913981</v>
@@ -26346,16 +26346,16 @@
         <v>469940.6138913982</v>
       </c>
       <c r="M2" t="n">
+        <v>469940.6138913981</v>
+      </c>
+      <c r="N2" t="n">
         <v>469940.613891398</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469940.6138913981</v>
       </c>
       <c r="O2" t="n">
         <v>469940.6138913981</v>
       </c>
       <c r="P2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.613891398</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="G4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="H4" t="n">
         <v>761.3882086835454</v>
-      </c>
-      <c r="G4" t="n">
-        <v>761.3882086835451</v>
-      </c>
-      <c r="H4" t="n">
-        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="K4" t="n">
         <v>761.3882086835451</v>
@@ -26453,7 +26453,7 @@
         <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474468</v>
+        <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
         <v>291094.377253124</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145174</v>
+        <v>41699.04871698648</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243418</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588079</v>
+        <v>367111.5105243422</v>
       </c>
       <c r="H6" t="n">
-        <v>368056.6958588077</v>
+        <v>367111.510524342</v>
       </c>
       <c r="I6" t="n">
-        <v>368056.6958588072</v>
+        <v>367111.5105243422</v>
       </c>
       <c r="J6" t="n">
-        <v>150525.49346153</v>
+        <v>149580.3081270645</v>
       </c>
       <c r="K6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.510524342</v>
       </c>
       <c r="L6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243421</v>
       </c>
       <c r="M6" t="n">
-        <v>283001.6679232954</v>
+        <v>282056.4825888301</v>
       </c>
       <c r="N6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.5105243419</v>
       </c>
       <c r="O6" t="n">
-        <v>368056.6958588075</v>
+        <v>367111.510524342</v>
       </c>
       <c r="P6" t="n">
-        <v>368056.6958588076</v>
+        <v>367111.5105243419</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3649071132053</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>82.77197511231</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27590,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.66894511512228</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>170.5349263790313</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2434156620131205</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>291.4251788534393</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>177.552618361919</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>253.5678987530628</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093077</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209183</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134948742</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
         <v>157.5888220649825</v>
@@ -35576,19 +35576,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410441</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925881</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>231.867312777574</v>
       </c>
       <c r="M28" t="n">
         <v>247.7627660915995</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925793</v>
       </c>
       <c r="Q40" t="n">
         <v>55.05929892214689</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1265022.261564546</v>
+        <v>1269812.49414811</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358594</v>
+        <v>1134222.401358596</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>28.9079846578023</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.90798465780192</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62.64907291062124</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>261.7337600035945</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>28.90798465780367</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>260.8334463828062</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>26.3653517777011</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>19.53202017915646</v>
+        <v>176.462651506237</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>64.33403876091346</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.48955078545491</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.5998750794831</v>
+        <v>167.7141380329521</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.4226250355566</v>
+        <v>142.8528431270819</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444114</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>47.85279947264753</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>65.31126771337246</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663482</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,10 +2614,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>76.77013558107592</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.31126771336955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>152.8467119671852</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.7349138039411</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.79739267512333</v>
+        <v>72.9049832704039</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>39.1663969284044</v>
+        <v>109.7321008317</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.52634516334646</v>
+        <v>146.4339626465752</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.9547497863012</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>6.03800470863185e-12</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.4675916026428</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>247.5801935820304</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>6.03800470863185e-12</v>
       </c>
       <c r="X46" t="n">
-        <v>192.5640793128577</v>
+        <v>169.9341730387019</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>510.7845510900171</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>95.71210093501361</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>95.71210093501361</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>297.4968448863748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429006</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124266</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>2240.582457090719</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>510.784551090019</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>95.71210093501543</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>95.71210093501543</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4576,19 +4576,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4716,61 +4716,61 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>740.9661488811912</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>329.9802440915836</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3298.974153146847</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3045.443676420683</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2714.380789077113</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.612133806998</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>1988.146375545919</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5193,31 +5193,31 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5229,16 +5229,16 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332895</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V13" t="n">
-        <v>966.2695881270078</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W13" t="n">
-        <v>946.5402748147285</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="X13" t="n">
         <v>718.5507239167111</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.7771914342449</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>387.7771914342449</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>387.7771914342449</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5466,22 +5466,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>931.8788496770924</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>677.1943614712055</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W16" t="n">
-        <v>387.7771914342449</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="X16" t="n">
-        <v>387.7771914342449</v>
+        <v>923.1488203749748</v>
       </c>
       <c r="Y16" t="n">
-        <v>387.7771914342449</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>240.7066105458823</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C19" t="n">
-        <v>240.7066105458823</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458823</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377032</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309958</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309958</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309958</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332899</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U19" t="n">
-        <v>931.8788496770965</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V19" t="n">
-        <v>677.1943614712096</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="W19" t="n">
-        <v>387.777191434249</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="X19" t="n">
-        <v>240.7066105458823</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y19" t="n">
-        <v>240.7066105458823</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="C22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,25 +5910,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
         <v>1440.555541309953</v>
@@ -5937,25 +5937,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T22" t="n">
-        <v>1038.099241987799</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U22" t="n">
-        <v>749.0240153319969</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="V22" t="n">
-        <v>749.0240153319969</v>
+        <v>783.4147537819116</v>
       </c>
       <c r="W22" t="n">
-        <v>459.6068452950363</v>
+        <v>783.4147537819116</v>
       </c>
       <c r="X22" t="n">
-        <v>231.617294397019</v>
+        <v>555.4252028838943</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.1294017454277</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.3786564113032</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.480314654151</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V25" t="n">
-        <v>896.7958264482637</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W25" t="n">
-        <v>607.3786564113032</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3786564113032</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.3786564113032</v>
+        <v>159.7876405362269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.81666304797186</v>
+        <v>487.1883849698254</v>
       </c>
       <c r="C28" t="n">
-        <v>93.81666304797186</v>
+        <v>318.2522020419185</v>
       </c>
       <c r="D28" t="n">
-        <v>93.81666304797186</v>
+        <v>318.2522020419185</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>140.7528025687996</v>
@@ -6390,46 +6390,46 @@
         <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629305</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936139</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1018.909846477605</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.027877484366</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377024</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>1440.55554130995</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>1440.55554130995</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.55554130995</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T28" t="n">
-        <v>1220.954076332891</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="U28" t="n">
-        <v>931.8788496770887</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="V28" t="n">
-        <v>677.1943614712019</v>
+        <v>935.9705150113729</v>
       </c>
       <c r="W28" t="n">
-        <v>387.7771914342413</v>
+        <v>935.9705150113729</v>
       </c>
       <c r="X28" t="n">
-        <v>159.7876405362239</v>
+        <v>707.9809641133555</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.81666304797186</v>
+        <v>487.1883849698254</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>862.0631446171899</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C31" t="n">
-        <v>693.126961689283</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>543.0103222769472</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>395.0972286945541</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>248.2072811966438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.480314654151</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V31" t="n">
-        <v>1151.480314654151</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W31" t="n">
-        <v>862.0631446171899</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="X31" t="n">
-        <v>862.0631446171899</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0631446171899</v>
+        <v>538.7363435406111</v>
       </c>
     </row>
     <row r="32">
@@ -6694,52 +6694,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>140.7528025687996</v>
@@ -6888,22 +6888,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U34" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V34" t="n">
-        <v>1440.555541309953</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W34" t="n">
-        <v>1151.138371272992</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="X34" t="n">
-        <v>923.1488203749748</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.1488203749748</v>
+        <v>456.0598389465164</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>449.2048105731875</v>
+        <v>818.5130323591241</v>
       </c>
       <c r="C37" t="n">
-        <v>280.2686276452806</v>
+        <v>649.5768494312172</v>
       </c>
       <c r="D37" t="n">
-        <v>280.2686276452806</v>
+        <v>499.4602100188814</v>
       </c>
       <c r="E37" t="n">
-        <v>280.2686276452806</v>
+        <v>351.5471164364883</v>
       </c>
       <c r="F37" t="n">
-        <v>133.3786801473703</v>
+        <v>204.6571689385779</v>
       </c>
       <c r="G37" t="n">
-        <v>133.3786801473703</v>
+        <v>204.6571689385779</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>931.8788496770917</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V37" t="n">
-        <v>677.1943614712048</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="W37" t="n">
-        <v>677.1943614712048</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="X37" t="n">
-        <v>449.2048105731875</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="Y37" t="n">
-        <v>449.2048105731875</v>
+        <v>1000.161497189364</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.012839093331</v>
+        <v>705.9324428257372</v>
       </c>
       <c r="C40" t="n">
-        <v>325.0766561654241</v>
+        <v>705.9324428257372</v>
       </c>
       <c r="D40" t="n">
-        <v>325.0766561654241</v>
+        <v>555.8158034134015</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>140.7528025687996</v>
@@ -7350,34 +7350,34 @@
         <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377023</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309948</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.555541309948</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V40" t="n">
-        <v>1185.871053104062</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W40" t="n">
-        <v>896.4538830671008</v>
+        <v>705.9324428257372</v>
       </c>
       <c r="X40" t="n">
-        <v>896.4538830671008</v>
+        <v>705.9324428257372</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.6613039235707</v>
+        <v>705.9324428257372</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>971.0687935885854</v>
+        <v>235.5284942057799</v>
       </c>
       <c r="C43" t="n">
-        <v>802.1326106606786</v>
+        <v>235.5284942057799</v>
       </c>
       <c r="D43" t="n">
-        <v>652.0159712483428</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>504.1028776659497</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>357.2129301680393</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1373.509837562355</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T43" t="n">
-        <v>1373.509837562355</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U43" t="n">
-        <v>1373.509837562355</v>
+        <v>1007.619703346645</v>
       </c>
       <c r="V43" t="n">
-        <v>1373.509837562355</v>
+        <v>752.9352151407579</v>
       </c>
       <c r="W43" t="n">
-        <v>1373.509837562355</v>
+        <v>463.5180451037972</v>
       </c>
       <c r="X43" t="n">
-        <v>1373.509837562355</v>
+        <v>235.5284942057799</v>
       </c>
       <c r="Y43" t="n">
-        <v>1152.717258418825</v>
+        <v>235.5284942057799</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.8694853882145</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>243.9333024603076</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>93.81666304797187</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.480314654151</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V46" t="n">
-        <v>896.7958264482637</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W46" t="n">
-        <v>607.3786564113032</v>
+        <v>1440.555541309947</v>
       </c>
       <c r="X46" t="n">
-        <v>412.8694853882145</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.8694853882145</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.9909781574345</v>
+        <v>110.060346830354</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.09992388565571</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.0951025666399</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>80.10978030955408</v>
+        <v>57.99551735608503</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.1620283165382</v>
+        <v>75.73181022501288</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>119.3940216259803</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100.2128705788964</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>69.66382706549325</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.2733856387252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.67742632508367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462299</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,19 +24891,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>88.97474158509607</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.034587506814</v>
+        <v>106.9269969115334</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,22 +25128,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890428</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>101.1283159178195</v>
+        <v>30.56261201452389</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>62.90761748322271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25605,19 +25605,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.56824855028978</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.05654668962602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>38.60428080721374</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,19 +26079,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.14557607617942</v>
+        <v>55.77548235033527</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585137</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>469940.6138913981</v>
@@ -26331,22 +26331,22 @@
         <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.6138913979</v>
       </c>
       <c r="I2" t="n">
         <v>469940.6138913981</v>
       </c>
       <c r="J2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.613891398</v>
       </c>
       <c r="K2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.613891398</v>
       </c>
       <c r="L2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.613891398</v>
       </c>
       <c r="M2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.613891398</v>
       </c>
       <c r="N2" t="n">
         <v>469940.613891398</v>
@@ -26355,7 +26355,7 @@
         <v>469940.6138913981</v>
       </c>
       <c r="P2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913979</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086834737</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086834624</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531241</v>
+        <v>291094.3772531239</v>
       </c>
       <c r="E6" t="n">
-        <v>41699.04871698648</v>
+        <v>42549.71551800575</v>
       </c>
       <c r="F6" t="n">
-        <v>367111.5105243418</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="G6" t="n">
-        <v>367111.5105243422</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367111.510524342</v>
+        <v>367962.1773253607</v>
       </c>
       <c r="I6" t="n">
-        <v>367111.5105243422</v>
+        <v>367962.177325361</v>
       </c>
       <c r="J6" t="n">
-        <v>149580.3081270645</v>
+        <v>150430.9749280835</v>
       </c>
       <c r="K6" t="n">
-        <v>367111.510524342</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="L6" t="n">
-        <v>367111.5105243421</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="M6" t="n">
-        <v>282056.4825888301</v>
+        <v>282907.149389849</v>
       </c>
       <c r="N6" t="n">
-        <v>367111.5105243419</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="O6" t="n">
-        <v>367111.510524342</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="P6" t="n">
-        <v>367111.5105243419</v>
+        <v>367962.1773253608</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>336.3649071132053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>12.66894511512406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>82.77197511231</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>103.5391317674131</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.66894511512228</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>150.0882792706472</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.552618361919</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0649678661466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.649819367765273e-14</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-5.169524579308078e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.416034094563236e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.169524579308091e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29334,10 +29334,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-5.169524579308091e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-5.169524579308091e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-6.03800470863185e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29802,10 +29802,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-5.169524579308091e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-5.169524579308091e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-5.695092911537747e-12</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.820503932250809e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30389,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-6.03800470863185e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-4.434206915457614e-12</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-6.03800470863185e-12</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925881</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777574</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
         <v>247.7627660915995</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925793</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
         <v>55.05929892214689</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
